--- a/TestData/CreateUserTestData.xlsx
+++ b/TestData/CreateUserTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Plant</t>
+    <t>EmpId</t>
   </si>
   <si>
     <t>Section</t>
@@ -65,33 +65,324 @@
     <t>Planner1@gmail.com</t>
   </si>
   <si>
-    <t>AMMUNITION FACTORY KHADKI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILLING 8, CASE 4,FILLING 2,
-FILLING 1,CASE 2,LOADING,
-WET PRIMER FILLING
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRING ALL MATERIALS,WEIGH CUPS &amp; RECORD,
-INDENT HD PIERCE TAPER &amp;NECK UNSKILLED,
-INDENT HD PIERCE TAPER &amp;NECK,DEGREASING RINSING DRYING,CASE BODY ANNEALING HS-II,
-INPROCESS INSPECTION,DEGREASING RINSING DRYING UNSKILLED,PICKLING RINISING SOAPING,I&amp;II DRAW &amp; TRIMMING HS-II,SEGREGATION OF CUPS,
-VISUAL EXAM BEFOUR VERTICALPRESS,DRYING,
-INDENT HD PIERCE TAPER &amp;NECK HS-II,I&amp;II DRAW &amp; TRIMMING UNSKILLED,Checking of Solution Strength from Lab,HD TURNING &amp; MOUTH REAMING HS-I,I &amp; II DRAW &amp; TRIMMING,HD TURNING &amp; MOUTH REAMING,
-INDENT HD PIERCE TAPER &amp;NECK HS-I,LOW TEMP ANNEALING,PREPARE SOLN OF PICKLING,DRYING OF CUPS,HD TURNING &amp; MOUTH REAMING UNSKILLED,I&amp;II DRAW &amp; TRIMMING HS-I,In PROCESS HARDNESS INSPECTION,HD TURNING &amp; MOUTH REAMING HS-II,CASE BODY ANNEALING,
-LOW TEMP ANNEALING HS-II,PICKLING OF CUPS
-</t>
-  </si>
-  <si>
-    <t>KG-990 SR.NO.09,KG-989 SR.NO.06,
-MTPF-7171,
-AFK/LT-1643,
-MTPF-7162,
-AFH/LT-1643,
-UMK-6207,
-AFK/LT-1636</t>
+    <r>
+      <t>FILLING 8, CASE 4,FILLING 2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FILLING 1,CASE 2,LOADING,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WET PRIMER FILLING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BRING ALL MATERIALS,WEIGH CUPS &amp; RECORD,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INDENT HD PIERCE TAPER &amp;NECK UNSKILLED,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INDENT HD PIERCE TAPER &amp;NECK,DEGREASING RINSING DRYING,CASE BODY ANNEALING HS-II,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INPROCESS INSPECTION,DEGREASING RINSING DRYING UNSKILLED,PICKLING RINISING SOAPING,I&amp;II DRAW &amp; TRIMMING HS-II,SEGREGATION OF CUPS,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VISUAL EXAM BEFOUR VERTICALPRESS,DRYING,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INDENT HD PIERCE TAPER &amp;NECK HS-II,I&amp;II DRAW &amp; TRIMMING UNSKILLED,Checking of Solution Strength from Lab,HD TURNING &amp; MOUTH REAMING HS-I,I &amp; II DRAW &amp; TRIMMING,HD TURNING &amp; MOUTH REAMING,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INDENT HD PIERCE TAPER &amp;NECK HS-I,LOW TEMP ANNEALING,PREPARE SOLN OF PICKLING,DRYING OF CUPS,HD TURNING &amp; MOUTH REAMING UNSKILLED,I&amp;II DRAW &amp; TRIMMING HS-I,In PROCESS HARDNESS INSPECTION,HD TURNING &amp; MOUTH REAMING HS-II,CASE BODY ANNEALING,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LOW TEMP ANNEALING HS-II,PICKLING OF CUPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KG-990 SR.NO.09,KG-989 SR.NO.06,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MTPF-7171,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AFK/LT-1643,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MTPF-7162,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AFH/LT-1643,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UMK-6207,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AFK/LT-1636</t>
+    </r>
   </si>
   <si>
     <t>Supervisor</t>
@@ -100,10 +391,57 @@
     <t>Supervisor1@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">FILLING 8, CASE 4,FILLING 2,
-FILLING 1,CASE 3,LOADING,
-WET PRIMER FILLING
-</t>
+    <r>
+      <t>FILLING 8, CASE 4,FILLING 2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FILLING 1,CASE 3,LOADING,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WET PRIMER FILLING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>Operator</t>
@@ -112,10 +450,57 @@
     <t>operator1@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">FILLING 8, CASE 4,FILLING 2,
-FILLING 1,CASE 4,LOADING,
-WET PRIMER FILLING
-</t>
+    <r>
+      <t>FILLING 8, CASE 4,FILLING 2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FILLING 1,CASE 4,LOADING,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WET PRIMER FILLING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -128,7 +513,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,10 +524,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -483,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -493,16 +890,29 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,142 +1032,149 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1109,8 +1526,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1118,218 +1535,218 @@
     <col min="2" max="2" width="10.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="24.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="32.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="24.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="41.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="15.6363636363636" customWidth="1"/>
-    <col min="9" max="9" width="11.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="15.1454545454545" customWidth="1"/>
+    <col min="6" max="6" width="34.5909090909091" customWidth="1"/>
+    <col min="7" max="7" width="35.9818181818182" customWidth="1"/>
+    <col min="8" max="8" width="21.9636363636364" customWidth="1"/>
+    <col min="9" max="9" width="17.6727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="333.5" spans="1:9">
-      <c r="A2" t="s">
+    <row r="2" ht="409.5" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>8489472382</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4">
+        <v>194</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="333.5" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8489427384</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="4">
+        <v>199</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>8489427384</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C4" s="3">
+        <v>8489472252</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4">
+        <v>198</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="333.5" spans="1:9">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>8489472252</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8">
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="8:8">
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="8:8">
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="8:8">
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="8:8">
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="8:8">
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="8:8">
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="8:8">
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="8:8">
-      <c r="H32" s="3"/>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="Planner1@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="Supervisor1@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="operator1@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="Planner1@gmail.com" tooltip="mailto:Planner1@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="Supervisor1@gmail.com" tooltip="mailto:Supervisor1@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="operator1@gmail.com" tooltip="mailto:operator1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
